--- a/runs/run409/NotionalETEOutput409.xlsx
+++ b/runs/run409/NotionalETEOutput409.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER3_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3_41.MISSILE_BRAVER3_41</t>
+    <t>MISSILE_HIGHWIND1_64.MISSILE_HIGHWIND1_64</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER3</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1536.731779652152</v>
+        <v>-1478.448525779667</v>
       </c>
       <c r="J2">
-        <v>1923.506517641578</v>
+        <v>2053.221557548227</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1524.874407033882</v>
+        <v>-1426.907066789566</v>
       </c>
       <c r="J3">
-        <v>1979.844095872847</v>
+        <v>1881.608350302212</v>
       </c>
       <c r="K3">
-        <v>296.4499251994088</v>
+        <v>298.009750219724</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1404.653680409169</v>
+        <v>-1481.73152630736</v>
       </c>
       <c r="J4">
-        <v>1989.818289222092</v>
+        <v>1809.376244971174</v>
       </c>
       <c r="K4">
-        <v>578.146365342626</v>
+        <v>611.6269604810529</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1347.810577611223</v>
+        <v>-1453.865913304489</v>
       </c>
       <c r="J5">
-        <v>1941.817858815183</v>
+        <v>1799.201772961679</v>
       </c>
       <c r="K5">
-        <v>857.2429273300494</v>
+        <v>845.8703155542178</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1372.217362683318</v>
+        <v>-1405.778495286984</v>
       </c>
       <c r="J6">
-        <v>1852.745325069018</v>
+        <v>1738.346861081751</v>
       </c>
       <c r="K6">
-        <v>1102.390109718573</v>
+        <v>1140.303952072153</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1383.560870583974</v>
+        <v>-1382.061324428348</v>
       </c>
       <c r="J7">
-        <v>1705.106084229564</v>
+        <v>1760.68452148127</v>
       </c>
       <c r="K7">
-        <v>1433.309894456733</v>
+        <v>1387.410509857004</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1262.464709730004</v>
+        <v>-1315.556306925881</v>
       </c>
       <c r="J8">
-        <v>1724.996332280583</v>
+        <v>1782.035618508392</v>
       </c>
       <c r="K8">
-        <v>1540.43021916416</v>
+        <v>1555.346616041954</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-101.59395434416</v>
+        <v>-98.98136239499489</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1273.961097907987</v>
+        <v>-1330.926412932603</v>
       </c>
       <c r="J9">
-        <v>1698.642546169867</v>
+        <v>1642.582891053998</v>
       </c>
       <c r="K9">
-        <v>1847.951971676591</v>
+        <v>1890.767353157976</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>225.8400086994882</v>
+        <v>212.1687298063051</v>
       </c>
       <c r="G10">
-        <v>-81.66317620465432</v>
+        <v>-82.01151948592997</v>
       </c>
       <c r="H10">
-        <v>889.4550852167011</v>
+        <v>826.3056792166541</v>
       </c>
       <c r="I10">
-        <v>-1188.505105366113</v>
+        <v>-1200.396115781759</v>
       </c>
       <c r="J10">
-        <v>1614.140690418285</v>
+        <v>1643.653600438704</v>
       </c>
       <c r="K10">
-        <v>2004.032560629051</v>
+        <v>1910.915595556087</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.6208127978528</v>
+        <v>174.6501430238771</v>
       </c>
       <c r="G11">
-        <v>-69.57926083954393</v>
+        <v>-67.04962481879704</v>
       </c>
       <c r="H11">
-        <v>1076.801521702658</v>
+        <v>1035.796772979586</v>
       </c>
       <c r="I11">
-        <v>-1248.486504197738</v>
+        <v>-1167.161265842199</v>
       </c>
       <c r="J11">
-        <v>1526.369626370561</v>
+        <v>1520.850002925503</v>
       </c>
       <c r="K11">
-        <v>2083.30272074205</v>
+        <v>2119.078204330686</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.6913992455443</v>
+        <v>137.299153493579</v>
       </c>
       <c r="G12">
-        <v>-49.70400564916178</v>
+        <v>-51.34917771278764</v>
       </c>
       <c r="H12">
-        <v>1194.832934160444</v>
+        <v>1225.95396988837</v>
       </c>
       <c r="I12">
-        <v>-1174.261753670466</v>
+        <v>-1204.523040189151</v>
       </c>
       <c r="J12">
-        <v>1585.797737280381</v>
+        <v>1550.381288874373</v>
       </c>
       <c r="K12">
-        <v>2267.139723203494</v>
+        <v>2284.065238020403</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.1347296258357</v>
+        <v>127.2699790220141</v>
       </c>
       <c r="G13">
-        <v>-35.50416045153286</v>
+        <v>-32.7374396492138</v>
       </c>
       <c r="H13">
-        <v>1203.038835444615</v>
+        <v>1299.438118212024</v>
       </c>
       <c r="I13">
-        <v>-1080.939064210545</v>
+        <v>-1127.283969200116</v>
       </c>
       <c r="J13">
-        <v>1450.264101043461</v>
+        <v>1535.413187344936</v>
       </c>
       <c r="K13">
-        <v>2501.023076594287</v>
+        <v>2430.115481285108</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.7889699662348</v>
+        <v>109.9987531709856</v>
       </c>
       <c r="G14">
-        <v>-17.76006024591719</v>
+        <v>-16.74240506383438</v>
       </c>
       <c r="H14">
-        <v>1271.938317774304</v>
+        <v>1378.987583602349</v>
       </c>
       <c r="I14">
-        <v>-1063.699484316572</v>
+        <v>-1067.078801503277</v>
       </c>
       <c r="J14">
-        <v>1386.73324959043</v>
+        <v>1429.514480710979</v>
       </c>
       <c r="K14">
-        <v>2733.988572418806</v>
+        <v>2694.289664117036</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.7580850569649</v>
+        <v>103.9368844973137</v>
       </c>
       <c r="G15">
-        <v>-0.9688838633533625</v>
+        <v>-0.9529371101288068</v>
       </c>
       <c r="H15">
-        <v>1394.7030832537</v>
+        <v>1432.694830093849</v>
       </c>
       <c r="I15">
-        <v>-1099.822432161296</v>
+        <v>-1080.685844974401</v>
       </c>
       <c r="J15">
-        <v>1362.824711932057</v>
+        <v>1431.145804022724</v>
       </c>
       <c r="K15">
-        <v>2852.908632912278</v>
+        <v>2806.596445190962</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>88.93015753031631</v>
+        <v>90.39016679785749</v>
       </c>
       <c r="G16">
-        <v>16.00291883498529</v>
+        <v>15.84087792866138</v>
       </c>
       <c r="H16">
-        <v>1384.099680557304</v>
+        <v>1395.447135075007</v>
       </c>
       <c r="I16">
-        <v>-1008.665065877733</v>
+        <v>-1049.007423609939</v>
       </c>
       <c r="J16">
-        <v>1361.84719940652</v>
+        <v>1287.864170473604</v>
       </c>
       <c r="K16">
-        <v>2883.758831636211</v>
+        <v>2877.274618312018</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.69631821592897</v>
+        <v>84.33232904172884</v>
       </c>
       <c r="G17">
-        <v>32.14677502425416</v>
+        <v>31.34637621213604</v>
       </c>
       <c r="H17">
-        <v>1518.256225195557</v>
+        <v>1518.113441656719</v>
       </c>
       <c r="I17">
-        <v>-923.300958093853</v>
+        <v>-1006.213135624794</v>
       </c>
       <c r="J17">
-        <v>1246.970882499821</v>
+        <v>1277.380991986644</v>
       </c>
       <c r="K17">
-        <v>2970.68142985284</v>
+        <v>3056.138084246204</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>79.11881482709539</v>
+        <v>78.94736139464965</v>
       </c>
       <c r="G18">
-        <v>48.54189966086634</v>
+        <v>48.25433780714407</v>
       </c>
       <c r="H18">
-        <v>1575.430782677308</v>
+        <v>1462.192384373876</v>
       </c>
       <c r="I18">
-        <v>-922.520518179892</v>
+        <v>-919.3199793291575</v>
       </c>
       <c r="J18">
-        <v>1160.766277292454</v>
+        <v>1206.694028721283</v>
       </c>
       <c r="K18">
-        <v>3061.230410582331</v>
+        <v>3048.6868219831</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.16358322511346</v>
+        <v>74.60865914775839</v>
       </c>
       <c r="G19">
-        <v>68.01375049103022</v>
+        <v>65.73865001319361</v>
       </c>
       <c r="H19">
-        <v>1568.430192434794</v>
+        <v>1577.738622515028</v>
       </c>
       <c r="I19">
-        <v>-873.4515407646786</v>
+        <v>-916.7049116003143</v>
       </c>
       <c r="J19">
-        <v>1223.67366502924</v>
+        <v>1174.517863261635</v>
       </c>
       <c r="K19">
-        <v>3142.305091882009</v>
+        <v>2961.331614243883</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>70.53047675869341</v>
+        <v>71.17562995635184</v>
       </c>
       <c r="G20">
-        <v>79.00774561716939</v>
+        <v>85.01373409694224</v>
       </c>
       <c r="H20">
-        <v>1496.594386350399</v>
+        <v>1592.461141536676</v>
       </c>
       <c r="I20">
-        <v>-821.5539295476532</v>
+        <v>-830.7241739671606</v>
       </c>
       <c r="J20">
-        <v>1121.325007705068</v>
+        <v>1166.232844329647</v>
       </c>
       <c r="K20">
-        <v>3258.110309799393</v>
+        <v>3259.64699775305</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.457815571943</v>
+        <v>72.70729692567626</v>
       </c>
       <c r="G21">
-        <v>94.21792510872706</v>
+        <v>100.4570647001532</v>
       </c>
       <c r="H21">
-        <v>1541.858974755688</v>
+        <v>1532.918998395943</v>
       </c>
       <c r="I21">
-        <v>-760.9007949981172</v>
+        <v>-822.9313991250116</v>
       </c>
       <c r="J21">
-        <v>1106.281140575988</v>
+        <v>1082.430852012073</v>
       </c>
       <c r="K21">
-        <v>3225.403479643243</v>
+        <v>3212.614594245973</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.37968076774267</v>
+        <v>65.36731024152112</v>
       </c>
       <c r="G22">
-        <v>114.8167649566644</v>
+        <v>114.3975308616858</v>
       </c>
       <c r="H22">
-        <v>1597.953693370964</v>
+        <v>1679.830953249672</v>
       </c>
       <c r="I22">
-        <v>-716.2182717593139</v>
+        <v>-718.0525930320929</v>
       </c>
       <c r="J22">
-        <v>992.762128981043</v>
+        <v>978.1629952691345</v>
       </c>
       <c r="K22">
-        <v>3321.041960588505</v>
+        <v>3159.930420215928</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.89579353019872</v>
+        <v>62.63971783741087</v>
       </c>
       <c r="G23">
-        <v>125.9368026430963</v>
+        <v>126.6506372908616</v>
       </c>
       <c r="H23">
-        <v>1690.181223398218</v>
+        <v>1656.742425176673</v>
       </c>
       <c r="I23">
-        <v>-701.0693399449735</v>
+        <v>-685.5129702381157</v>
       </c>
       <c r="J23">
-        <v>944.1499720284467</v>
+        <v>1012.393029762954</v>
       </c>
       <c r="K23">
-        <v>3342.863067575744</v>
+        <v>3073.790898773907</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.30931152300199</v>
+        <v>64.92732188029264</v>
       </c>
       <c r="G24">
-        <v>148.2857440525898</v>
+        <v>148.863446628797</v>
       </c>
       <c r="H24">
-        <v>1601.024760162014</v>
+        <v>1611.152012725599</v>
       </c>
       <c r="I24">
-        <v>-652.311042539128</v>
+        <v>-671.4038386324052</v>
       </c>
       <c r="J24">
-        <v>955.6275989981567</v>
+        <v>922.6717962640677</v>
       </c>
       <c r="K24">
-        <v>3261.096802060476</v>
+        <v>3184.923444965024</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.07714615888223</v>
+        <v>63.59390553241634</v>
       </c>
       <c r="G25">
-        <v>158.1723922442229</v>
+        <v>162.9573466768362</v>
       </c>
       <c r="H25">
-        <v>1640.445321409916</v>
+        <v>1613.108039394471</v>
       </c>
       <c r="I25">
-        <v>-585.2213138415491</v>
+        <v>-618.8776072981892</v>
       </c>
       <c r="J25">
-        <v>877.6962560126281</v>
+        <v>856.0840966068439</v>
       </c>
       <c r="K25">
-        <v>3152.029875048415</v>
+        <v>3072.066692115164</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.67371668672615</v>
+        <v>59.98502715910413</v>
       </c>
       <c r="G26">
-        <v>178.2304709955423</v>
+        <v>182.5839756540299</v>
       </c>
       <c r="H26">
-        <v>1731.817689863052</v>
+        <v>1659.882127488946</v>
       </c>
       <c r="I26">
-        <v>-552.1491932810937</v>
+        <v>-550.8608202413736</v>
       </c>
       <c r="J26">
-        <v>829.8915690000572</v>
+        <v>868.3645961458406</v>
       </c>
       <c r="K26">
-        <v>3168.234989293514</v>
+        <v>3190.91215520862</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.65929027872286</v>
+        <v>59.66103942642565</v>
       </c>
       <c r="G27">
-        <v>187.7244270114517</v>
+        <v>205.1917321855431</v>
       </c>
       <c r="H27">
-        <v>1643.067058247426</v>
+        <v>1718.760462377465</v>
       </c>
       <c r="I27">
-        <v>-482.0498607675254</v>
+        <v>-510.2567977762458</v>
       </c>
       <c r="J27">
-        <v>809.2306045428219</v>
+        <v>792.4047608898109</v>
       </c>
       <c r="K27">
-        <v>3122.915724444423</v>
+        <v>3134.019575613341</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.90414352263623</v>
+        <v>57.44815733770588</v>
       </c>
       <c r="G28">
-        <v>204.404175891727</v>
+        <v>213.8417129063365</v>
       </c>
       <c r="H28">
-        <v>1802.14944591538</v>
+        <v>1641.089086203244</v>
       </c>
       <c r="I28">
-        <v>-450.0261829064916</v>
+        <v>-432.1148248220234</v>
       </c>
       <c r="J28">
-        <v>706.9830904630435</v>
+        <v>757.0741100777688</v>
       </c>
       <c r="K28">
-        <v>3124.090708725677</v>
+        <v>3010.022715159243</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.73952553236624</v>
+        <v>53.61492260892859</v>
       </c>
       <c r="G29">
-        <v>232.468499269137</v>
+        <v>233.6546270302575</v>
       </c>
       <c r="H29">
-        <v>1667.656548062152</v>
+        <v>1682.244098151427</v>
       </c>
       <c r="I29">
-        <v>-381.4695051422234</v>
+        <v>-399.0436136280604</v>
       </c>
       <c r="J29">
-        <v>718.139495574397</v>
+        <v>705.3785872296249</v>
       </c>
       <c r="K29">
-        <v>2901.7296178755</v>
+        <v>2858.18053485168</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.03249871042495</v>
+        <v>53.71868060676979</v>
       </c>
       <c r="G30">
-        <v>252.0253662738864</v>
+        <v>258.1488764191942</v>
       </c>
       <c r="H30">
-        <v>1706.04087878472</v>
+        <v>1779.525780757644</v>
       </c>
       <c r="I30">
-        <v>-327.3025796514743</v>
+        <v>-331.5145924667304</v>
       </c>
       <c r="J30">
-        <v>632.2619739508701</v>
+        <v>607.3511670789454</v>
       </c>
       <c r="K30">
-        <v>2737.122446403126</v>
+        <v>2796.656679758094</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>53.52855918089604</v>
+        <v>51.50877198039612</v>
       </c>
       <c r="G31">
-        <v>259.2060462321296</v>
+        <v>251.563495248555</v>
       </c>
       <c r="H31">
-        <v>1741.567626776954</v>
+        <v>1838.534205530768</v>
       </c>
       <c r="I31">
-        <v>-254.8129898793943</v>
+        <v>-269.2060479527324</v>
       </c>
       <c r="J31">
-        <v>599.5929496246499</v>
+        <v>615.3670019727213</v>
       </c>
       <c r="K31">
-        <v>2707.621912401594</v>
+        <v>2661.427528628912</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.37414027016375</v>
+        <v>52.15485436084503</v>
       </c>
       <c r="G32">
-        <v>279.7397171159326</v>
+        <v>282.1607241135264</v>
       </c>
       <c r="H32">
-        <v>1812.08695148045</v>
+        <v>1838.38002249116</v>
       </c>
       <c r="I32">
-        <v>-200.4502966006195</v>
+        <v>-203.757083351725</v>
       </c>
       <c r="J32">
-        <v>561.0453151938177</v>
+        <v>546.745363518782</v>
       </c>
       <c r="K32">
-        <v>2642.7239177145</v>
+        <v>2508.595105948569</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.44425458782202</v>
+        <v>48.35494641428167</v>
       </c>
       <c r="G33">
-        <v>299.3917394630716</v>
+        <v>287.3439314936844</v>
       </c>
       <c r="H33">
-        <v>1725.868358502376</v>
+        <v>1792.812139827888</v>
       </c>
       <c r="I33">
-        <v>-144.6661227204208</v>
+        <v>-142.4695762478467</v>
       </c>
       <c r="J33">
-        <v>473.7275518084817</v>
+        <v>487.2298176662943</v>
       </c>
       <c r="K33">
-        <v>2471.867286458621</v>
+        <v>2424.925250108344</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.71875567405798</v>
+        <v>49.58785836222692</v>
       </c>
       <c r="G34">
-        <v>302.6152447381367</v>
+        <v>313.3406689591393</v>
       </c>
       <c r="H34">
-        <v>1735.30538329791</v>
+        <v>1838.362327378338</v>
       </c>
       <c r="I34">
-        <v>-86.55131450346657</v>
+        <v>-81.23904843464997</v>
       </c>
       <c r="J34">
-        <v>428.4279998589273</v>
+        <v>462.7782559244876</v>
       </c>
       <c r="K34">
-        <v>2164.31818901314</v>
+        <v>2194.137588656423</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.98395838296832</v>
+        <v>47.33080726466699</v>
       </c>
       <c r="G35">
-        <v>330.1811721951925</v>
+        <v>329.2784758030925</v>
       </c>
       <c r="H35">
-        <v>1751.151110575195</v>
+        <v>1767.640503007798</v>
       </c>
       <c r="I35">
-        <v>-18.45901039945382</v>
+        <v>-18.19806324277779</v>
       </c>
       <c r="J35">
-        <v>381.9443679698301</v>
+        <v>387.1870191482917</v>
       </c>
       <c r="K35">
-        <v>1946.398301357202</v>
+        <v>2058.947319543594</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.08005556850689</v>
+        <v>47.21685185483278</v>
       </c>
       <c r="G36">
-        <v>339.911913627568</v>
+        <v>349.0611001658716</v>
       </c>
       <c r="H36">
-        <v>1802.526899585112</v>
+        <v>1873.845048864939</v>
       </c>
       <c r="I36">
-        <v>48.64660498682089</v>
+        <v>48.34133468574818</v>
       </c>
       <c r="J36">
-        <v>356.4669319642485</v>
+        <v>339.3514655741754</v>
       </c>
       <c r="K36">
-        <v>1896.323625821169</v>
+        <v>1751.26375181351</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.21729803792454</v>
+        <v>44.32522374392396</v>
       </c>
       <c r="G37">
-        <v>370.569709315202</v>
+        <v>346.5802950219496</v>
       </c>
       <c r="H37">
-        <v>1757.388920448132</v>
+        <v>1922.72271223712</v>
       </c>
       <c r="I37">
-        <v>117.2616349064953</v>
+        <v>110.4264695715437</v>
       </c>
       <c r="J37">
-        <v>309.2490057764498</v>
+        <v>282.8535738952021</v>
       </c>
       <c r="K37">
-        <v>1653.163355782053</v>
+        <v>1639.315507239531</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.91216167783546</v>
+        <v>47.72185124352003</v>
       </c>
       <c r="G38">
-        <v>381.4366964572899</v>
+        <v>387.3148829344177</v>
       </c>
       <c r="H38">
-        <v>1816.455841134922</v>
+        <v>1935.123864198137</v>
       </c>
       <c r="I38">
-        <v>178.5374899212582</v>
+        <v>186.6191098466921</v>
       </c>
       <c r="J38">
-        <v>249.8070526672876</v>
+        <v>260.725287451465</v>
       </c>
       <c r="K38">
-        <v>1430.627160829389</v>
+        <v>1378.245002738678</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>44.84941243290308</v>
+        <v>46.67746242776041</v>
       </c>
       <c r="G39">
-        <v>395.5839519991511</v>
+        <v>379.2528385936837</v>
       </c>
       <c r="H39">
-        <v>1827.526526170799</v>
+        <v>1771.520764933237</v>
       </c>
       <c r="I39">
-        <v>248.5901739314484</v>
+        <v>246.5646574571361</v>
       </c>
       <c r="J39">
-        <v>208.3241090054372</v>
+        <v>208.4595869326177</v>
       </c>
       <c r="K39">
-        <v>1125.627355088546</v>
+        <v>1183.585461164155</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.81278465890452</v>
+        <v>44.52829171230962</v>
       </c>
       <c r="G40">
-        <v>426.7639763559464</v>
+        <v>416.7455821865914</v>
       </c>
       <c r="H40">
-        <v>1818.894904429462</v>
+        <v>1806.727782874636</v>
       </c>
       <c r="I40">
-        <v>319.9949339942275</v>
+        <v>323.4990517814032</v>
       </c>
       <c r="J40">
-        <v>149.435200076478</v>
+        <v>147.5017001258721</v>
       </c>
       <c r="K40">
-        <v>898.5969790918847</v>
+        <v>854.0887245380475</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.91815760305023</v>
+        <v>42.14377347760875</v>
       </c>
       <c r="G41">
-        <v>411.5071879233955</v>
+        <v>425.920809265862</v>
       </c>
       <c r="H41">
-        <v>1850.615442167003</v>
+        <v>1892.76866003871</v>
       </c>
       <c r="I41">
-        <v>386.7096447816652</v>
+        <v>409.7927284651252</v>
       </c>
       <c r="J41">
-        <v>99.70477858389239</v>
+        <v>105.5734057748848</v>
       </c>
       <c r="K41">
-        <v>594.371200985152</v>
+        <v>625.6889248613078</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.89933902678399</v>
+        <v>40.71577179770934</v>
       </c>
       <c r="G42">
-        <v>440.7229931014614</v>
+        <v>433.1410652345667</v>
       </c>
       <c r="H42">
-        <v>1888.013478992368</v>
+        <v>1898.097393108787</v>
       </c>
       <c r="I42">
-        <v>502.5192169061756</v>
+        <v>482.4012396130454</v>
       </c>
       <c r="J42">
-        <v>53.91765433998068</v>
+        <v>52.66312237071553</v>
       </c>
       <c r="K42">
-        <v>328.3457442872844</v>
+        <v>324.8874542806133</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.93653067328147</v>
+        <v>44.30729490837982</v>
       </c>
       <c r="G43">
-        <v>463.8187912519264</v>
+        <v>478.314682713742</v>
       </c>
       <c r="H43">
-        <v>1866.043887191596</v>
+        <v>1890.749673428159</v>
       </c>
       <c r="I43">
-        <v>567.7419779858483</v>
+        <v>564.8445209365937</v>
       </c>
       <c r="J43">
-        <v>5.105030130965426</v>
+        <v>5.170659243544767</v>
       </c>
       <c r="K43">
-        <v>33.46137194299441</v>
+        <v>34.64531408921068</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.44325048507736</v>
+        <v>40.02585817776024</v>
       </c>
       <c r="G44">
-        <v>485.785791943493</v>
+        <v>459.1480202343684</v>
       </c>
       <c r="H44">
-        <v>1899.627014478164</v>
+        <v>1903.162968682418</v>
       </c>
       <c r="I44">
-        <v>636.3070691494597</v>
+        <v>658.970015185571</v>
       </c>
       <c r="J44">
-        <v>-41.40495731009177</v>
+        <v>-42.18054869730303</v>
       </c>
       <c r="K44">
-        <v>-290.3380691963683</v>
+        <v>-292.7900297495664</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.41996816325299</v>
+        <v>40.50197566459856</v>
       </c>
       <c r="G45">
-        <v>482.5324607310332</v>
+        <v>501.4255125568388</v>
       </c>
       <c r="H45">
-        <v>1915.397803664344</v>
+        <v>1980.24307286174</v>
       </c>
       <c r="I45">
-        <v>694.5813837252296</v>
+        <v>744.3802249952115</v>
       </c>
       <c r="J45">
-        <v>-93.94407494837442</v>
+        <v>-95.51064785331762</v>
       </c>
       <c r="K45">
-        <v>-604.4442853972193</v>
+        <v>-619.1774332303725</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.5347739974962</v>
+        <v>40.73962289423594</v>
       </c>
       <c r="G46">
-        <v>499.032555449567</v>
+        <v>536.1744008577097</v>
       </c>
       <c r="H46">
-        <v>1906.341525507951</v>
+        <v>1900.835850840593</v>
       </c>
       <c r="I46">
-        <v>803.1708126846924</v>
+        <v>785.7833356703004</v>
       </c>
       <c r="J46">
-        <v>-143.0637454020095</v>
+        <v>-144.3213839492874</v>
       </c>
       <c r="K46">
-        <v>-1008.19544791321</v>
+        <v>-984.8668112394464</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.53497185670795</v>
+        <v>39.86455855693085</v>
       </c>
       <c r="G47">
-        <v>541.6906898780639</v>
+        <v>516.6095672338165</v>
       </c>
       <c r="H47">
-        <v>2025.273298839785</v>
+        <v>1954.06321876652</v>
       </c>
       <c r="I47">
-        <v>852.0463167224931</v>
+        <v>917.211134054434</v>
       </c>
       <c r="J47">
-        <v>-198.0348853677797</v>
+        <v>-181.899574168238</v>
       </c>
       <c r="K47">
-        <v>-1293.906161525452</v>
+        <v>-1336.380327706691</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.84169797796442</v>
+        <v>40.26005001502294</v>
       </c>
       <c r="G48">
-        <v>540.5898916965289</v>
+        <v>554.0263328672874</v>
       </c>
       <c r="H48">
-        <v>1963.916232913796</v>
+        <v>1987.330424397679</v>
       </c>
       <c r="I48">
-        <v>986.8295550325315</v>
+        <v>995.3879165559241</v>
       </c>
       <c r="J48">
-        <v>-234.4708038089425</v>
+        <v>-239.2547917624456</v>
       </c>
       <c r="K48">
-        <v>-1711.591483207586</v>
+        <v>-1673.462703078571</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.16374102848575</v>
+        <v>40.55282865391246</v>
       </c>
       <c r="G49">
-        <v>555.1621902924903</v>
+        <v>549.6354870199062</v>
       </c>
       <c r="H49">
-        <v>1933.118167313683</v>
+        <v>1910.544693299538</v>
       </c>
       <c r="I49">
-        <v>1116.397832397431</v>
+        <v>1048.880970539367</v>
       </c>
       <c r="J49">
-        <v>-274.622905651499</v>
+        <v>-278.050522782001</v>
       </c>
       <c r="K49">
-        <v>-2199.16254085513</v>
+        <v>-1993.52342186956</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.99827468730306</v>
+        <v>37.32826554770519</v>
       </c>
       <c r="G50">
-        <v>592.831865641968</v>
+        <v>596.3513896970269</v>
       </c>
       <c r="H50">
-        <v>1992.884801678008</v>
+        <v>1977.089944170682</v>
       </c>
       <c r="I50">
-        <v>1110.186366406842</v>
+        <v>1192.96535243912</v>
       </c>
       <c r="J50">
-        <v>-347.4127834904452</v>
+        <v>-323.0705488232086</v>
       </c>
       <c r="K50">
-        <v>-2466.895995643222</v>
+        <v>-2556.997773301013</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.45432251666996</v>
+        <v>38.03811468117304</v>
       </c>
       <c r="G51">
-        <v>566.5949226848078</v>
+        <v>608.9245891966988</v>
       </c>
       <c r="H51">
-        <v>1953.03492574669</v>
+        <v>1872.007127331414</v>
       </c>
       <c r="I51">
-        <v>1290.14380991189</v>
+        <v>1239.561660820033</v>
       </c>
       <c r="J51">
-        <v>-367.6218903274428</v>
+        <v>-376.7330835506733</v>
       </c>
       <c r="K51">
-        <v>-2898.625862965618</v>
+        <v>-2810.252180307356</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.77713473066168</v>
+        <v>35.7203168650955</v>
       </c>
       <c r="G52">
-        <v>596.4241793691759</v>
+        <v>638.4203963059219</v>
       </c>
       <c r="H52">
-        <v>1871.753209003238</v>
+        <v>1947.301567283477</v>
       </c>
       <c r="I52">
-        <v>1388.873635092335</v>
+        <v>1383.176711155396</v>
       </c>
       <c r="J52">
-        <v>-428.6641787716588</v>
+        <v>-429.1489892514188</v>
       </c>
       <c r="K52">
-        <v>-3500.509880256419</v>
+        <v>-3334.652394244566</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.3277393844288</v>
+        <v>36.86707251507377</v>
       </c>
       <c r="G53">
-        <v>623.1058201890492</v>
+        <v>608.7521652560486</v>
       </c>
       <c r="H53">
-        <v>1895.58230114203</v>
+        <v>1967.874723056809</v>
       </c>
       <c r="I53">
-        <v>1416.188644813835</v>
+        <v>1524.874224730366</v>
       </c>
       <c r="J53">
-        <v>-497.9434548967132</v>
+        <v>-460.8443713044346</v>
       </c>
       <c r="K53">
-        <v>-3787.569471775962</v>
+        <v>-3762.584473023162</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.7639485063404</v>
+        <v>36.70813315228934</v>
       </c>
       <c r="G54">
-        <v>637.3641924191079</v>
+        <v>653.8084925039733</v>
       </c>
       <c r="H54">
-        <v>1994.613656471751</v>
+        <v>2001.238511922522</v>
       </c>
       <c r="I54">
-        <v>1497.751103382697</v>
+        <v>1586.792360238708</v>
       </c>
       <c r="J54">
-        <v>-517.8819042165908</v>
+        <v>-541.6052821102093</v>
       </c>
       <c r="K54">
-        <v>-4098.516445906247</v>
+        <v>-4266.678410782106</v>
       </c>
     </row>
   </sheetData>
